--- a/LEGO部品リスト.xlsx
+++ b/LEGO部品リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\conf2023_MSCS2023\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351D9C4-495F-41E6-80EA-61B5759BF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4388B2C4-EE9E-4B86-9172-4F4943521297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="557" yWindow="761" windowWidth="25526" windowHeight="13299" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="231" yWindow="0" windowWidth="25526" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adip" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>BLItemNo</t>
   </si>
@@ -195,19 +195,6 @@
   </si>
   <si>
     <t>https://www.brickers.jp/?mode=srh&amp;keyword=32014</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>色違い：黒で算出</t>
-    <rPh sb="0" eb="2">
-      <t>イロチガ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サンシュツ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -347,6 +334,174 @@
     <t>合計金額</t>
     <rPh sb="0" eb="4">
       <t>ゴウケイキンガク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=11478</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32039</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32054</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各色</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>青色の代わりにで黒で算出</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32073</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4265c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=172584445</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24384273</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32184</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32278</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32316</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32524</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32526</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=25084441</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各色（黒）</t>
+    <rPh sb="3" eb="4">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=24444820</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各色（赤）</t>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各色（グレー）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=158840167</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各色（白）</t>
+    <rPh sb="3" eb="4">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>6538c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6538c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?mode=srh&amp;keyword=64179</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=55926830</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=149910574</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941217</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各色（黄）</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941132</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941384</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>各色（濃灰）</t>
+    <rPh sb="3" eb="4">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -712,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -827,6 +982,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -959,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,11 +1179,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1334,1012 +1571,1482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="27.7" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" customWidth="1"/>
+    <col min="8" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8">
+        <v>11478</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6327028</v>
+      </c>
+      <c r="C2" s="8">
+        <v>11478</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="13">
+        <v>58</v>
+      </c>
+      <c r="I2" s="13">
+        <f t="shared" ref="I2:I32" si="0">F2*H2</f>
+        <v>58</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>11478</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6328063</v>
+      </c>
+      <c r="C4" s="8">
+        <v>11478</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="13">
+        <v>38</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>2736</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4211375</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2736</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>2780</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6279875</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2780</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>32014</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4112205</v>
+      </c>
+      <c r="C8" s="5">
+        <v>32014</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4">
+        <v>63</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>32034</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4107798</v>
+      </c>
+      <c r="C9" s="5">
+        <v>32034</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11">
+        <v>32039</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6331716</v>
+      </c>
+      <c r="C10" s="11">
+        <v>32039</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="13">
+        <v>18</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
+        <v>32054</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6321745</v>
+      </c>
+      <c r="C12" s="11">
+        <v>32054</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="13">
+        <v>8</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11">
+        <v>32073</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6130008</v>
+      </c>
+      <c r="C14" s="11">
+        <v>32073</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="13">
+        <v>10</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6271167</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="13">
+        <v>10</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11">
+        <v>32184</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6276951</v>
+      </c>
+      <c r="C19" s="11">
+        <v>32184</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="9">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="13">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>32209</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4508553</v>
+      </c>
+      <c r="C21" s="5">
+        <v>32209</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="13">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
+        <v>32278</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4542578</v>
+      </c>
+      <c r="C22" s="11">
+        <v>32278</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="13">
+        <v>186</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11">
+        <v>32316</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4142133</v>
+      </c>
+      <c r="C24" s="11">
+        <v>32316</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="13">
+        <v>20</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
+        <v>32524</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4495930</v>
+      </c>
+      <c r="C26" s="11">
+        <v>32524</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="13">
+        <v>38</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11">
+        <v>32526</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4585040</v>
+      </c>
+      <c r="C28" s="11">
+        <v>32526</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="13">
+        <v>38</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11">
+        <v>3708</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6147702</v>
+      </c>
+      <c r="C30" s="11">
+        <v>3708</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="13">
+        <v>128</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11">
+        <v>3713</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6275844</v>
+      </c>
+      <c r="C32" s="11">
+        <v>3713</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="13">
+        <v>13</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
+        <v>39794</v>
+      </c>
+      <c r="B35" s="5">
+        <v>6265643</v>
+      </c>
+      <c r="C35" s="8">
+        <v>39794</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="13">
+        <v>677</v>
+      </c>
+      <c r="I36" s="13">
+        <f>F35*H36</f>
+        <v>2708</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5">
+        <v>43093</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4206482</v>
+      </c>
+      <c r="C37" s="5">
+        <v>43093</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="13">
+        <v>5</v>
+      </c>
+      <c r="I37" s="13">
+        <f>F37*H37</f>
+        <v>10</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5">
+        <v>44294</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6130009</v>
+      </c>
+      <c r="C38" s="5">
+        <v>44294</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="13">
+        <v>18</v>
+      </c>
+      <c r="I38" s="13">
+        <f>F38*H38</f>
+        <v>36</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5">
+        <v>44294</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4211805</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44294</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="13">
+        <v>16</v>
+      </c>
+      <c r="I39" s="13">
+        <f>F39*H39</f>
+        <v>32</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4519010</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="13">
+        <v>12</v>
+      </c>
+      <c r="I40" s="13">
+        <f>F40*H40</f>
+        <v>24</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
+        <v>64178</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4540797</v>
+      </c>
+      <c r="C42" s="5">
+        <v>64178</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="13">
+        <v>398</v>
+      </c>
+      <c r="I42" s="13">
+        <f>F42*H42</f>
+        <v>398</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="13">
+        <v>78</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="11">
+        <v>64179</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4539880</v>
+      </c>
+      <c r="C44" s="11">
+        <v>64179</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="9">
+        <v>3</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="13">
+        <v>303</v>
+      </c>
+      <c r="I44" s="13">
+        <f>F44*H44</f>
+        <v>909</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="11">
+        <v>6558</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6299413</v>
+      </c>
+      <c r="C46" s="11">
+        <v>6558</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="9">
+        <v>16</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="13">
+        <v>8</v>
+      </c>
+      <c r="I46" s="13">
+        <f>F46*H46</f>
+        <v>128</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6344752</v>
+      </c>
+      <c r="C48" s="11">
+        <v>6628</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="13">
+        <v>9</v>
+      </c>
+      <c r="I48" s="13">
+        <f>F48*H48</f>
+        <v>18</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="14"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11">
+        <v>99773</v>
+      </c>
+      <c r="B50" s="5">
+        <v>6331428</v>
+      </c>
+      <c r="C50" s="8">
+        <v>99773</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="7">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>11478</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6327028</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11478</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2">
-        <v>58</v>
-      </c>
-      <c r="I2">
-        <f>F2*H2</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>11478</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6328063</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11478</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3">
+      <c r="H50" s="13">
         <v>38</v>
       </c>
-      <c r="I3">
-        <f>F3*H3</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>2736</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4211375</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2736</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <f>F4*H4</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>2780</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6279875</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2780</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <f>F5*H5</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>32014</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4112205</v>
-      </c>
-      <c r="C6" s="1">
-        <v>32014</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6">
-        <v>63</v>
-      </c>
-      <c r="I6">
-        <f>F6*H6</f>
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>32034</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4107798</v>
-      </c>
-      <c r="C7" s="1">
-        <v>32034</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>23</v>
-      </c>
-      <c r="I7">
-        <f>F7*H7</f>
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>32039</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6331716</v>
-      </c>
-      <c r="C8" s="1">
-        <v>32039</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <f>F8*H8</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>32054</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6321745</v>
-      </c>
-      <c r="C9" s="1">
-        <v>32054</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f>F9*H9</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>32073</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6130008</v>
-      </c>
-      <c r="C10" s="1">
-        <v>32073</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <f>F10*H10</f>
+      <c r="I50" s="13">
+        <f>F50*H50</f>
+        <v>114</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="15"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="15"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="14"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="2">
+        <f>SUM(H2:H50)</f>
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6271167</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <f>F11*H11</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>32184</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6276951</v>
-      </c>
-      <c r="C12" s="1">
-        <v>32184</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <f>F12*H12</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>32209</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4508553</v>
-      </c>
-      <c r="C13" s="1">
-        <v>32209</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <f>F13*H13</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>32278</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4542578</v>
-      </c>
-      <c r="C14" s="1">
-        <v>32278</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14">
-        <v>186</v>
-      </c>
-      <c r="I14">
-        <f>F14*H14</f>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>32316</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4142133</v>
-      </c>
-      <c r="C15" s="1">
-        <v>32316</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <f>F15*H15</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>32524</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4495930</v>
-      </c>
-      <c r="C16" s="1">
-        <v>32524</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16">
-        <v>38</v>
-      </c>
-      <c r="I16">
-        <f>F16*H16</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>32526</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4585040</v>
-      </c>
-      <c r="C17" s="1">
-        <v>32526</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17">
-        <v>38</v>
-      </c>
-      <c r="I17">
-        <f>F17*H17</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>3708</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6147702</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3708</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18">
-        <v>128</v>
-      </c>
-      <c r="I18">
-        <f>F18*H18</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>3713</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6275844</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3713</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19">
-        <v>13</v>
-      </c>
-      <c r="I19">
-        <f>F19*H19</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4">
-        <v>6265643</v>
-      </c>
-      <c r="C20" s="4">
-        <v>39794</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>39794</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21">
-        <v>677</v>
-      </c>
-      <c r="I21">
-        <f>F20*H21</f>
-        <v>2708</v>
-      </c>
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>43093</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4206482</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43093</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <f>F22*H22</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>44294</v>
-      </c>
-      <c r="B23" s="1">
-        <v>6130009</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="I23">
-        <f>F23*H23</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>44294</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4211805</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <f>F24*H24</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4519010</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25">
-        <v>12</v>
-      </c>
-      <c r="I25">
-        <f>F25*H25</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <v>64178</v>
-      </c>
-      <c r="B26" s="4">
-        <v>4540797</v>
-      </c>
-      <c r="C26" s="4">
-        <v>64178</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26">
-        <v>398</v>
-      </c>
-      <c r="I26">
-        <f>F26*H26</f>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27">
-        <v>78</v>
-      </c>
-      <c r="J27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
-        <v>64179</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4539880</v>
-      </c>
-      <c r="C28" s="1">
-        <v>64179</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28">
-        <v>303</v>
-      </c>
-      <c r="I28">
-        <f>F28*H28</f>
-        <v>909</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>6558</v>
-      </c>
-      <c r="B29" s="1">
-        <v>6299413</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6558</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <f>F29*H29</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="1">
-        <v>6344752</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6628</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30">
-        <v>9</v>
-      </c>
-      <c r="I30">
-        <f>F30*H30</f>
-        <v>18</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
-        <v>99773</v>
-      </c>
-      <c r="B31" s="1">
-        <v>6331428</v>
-      </c>
-      <c r="C31" s="1">
-        <v>99773</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31">
-        <v>38</v>
-      </c>
-      <c r="I31">
-        <f>F31*H31</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="G33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="2">
-        <f>SUM(H2:H31)</f>
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="57" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57">
         <v>115</v>
       </c>
-      <c r="B35">
+      <c r="B57">
         <v>84.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
+  <mergeCells count="75">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="F46:F47"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{79101C2D-CBC4-4E8E-8062-9E79F30E4760}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{F7CC611D-4BD2-4001-AEB8-DE09CF4E88D5}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{A4B43C07-E938-48B3-A6E6-46A3E45A6B48}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{AC37DDBB-5E42-4A37-813B-59C31DAC776A}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{F1747C0F-F9AA-4224-9725-961C1EA65D36}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{E482F064-F6CD-4E2B-BD16-3C5AE5A26CB0}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{8AFF4FCB-188E-4CA4-9435-6A2C981856FB}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{D6CDD10A-1D5E-47C0-B586-3E4E345F74A6}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{912B1DA4-94FB-4F09-BD8C-7781ACDD4880}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{3C7636EF-9FFE-495C-8895-B7A6F6EC0D38}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{7C2D69A4-F66F-49FD-84C8-4F3C1FB2DCA8}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{B384C1E0-93EB-47BE-A1B9-81B422D52399}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{2F971E03-B15F-4FB6-ADD6-9F7659FF6337}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{474EF839-7364-4615-9BA9-D36A98D8043B}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{B83966E8-0CA6-4922-B435-C1DBFDEDC406}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{555A9DA7-6F74-42E2-9398-DF43FE60C67B}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{248F0F73-4963-40AE-8A92-CD274F79F4C4}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{7F38A6CE-A762-47E9-9845-5CD62FFDF541}"/>
-    <hyperlink ref="G21" r:id="rId19" xr:uid="{67A21F9E-1307-45C0-B96C-D361994A4589}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{385420D3-726D-4B3F-BABC-EBBD209C7033}"/>
-    <hyperlink ref="G23" r:id="rId21" xr:uid="{3026AA17-CC9E-4420-9BAE-341BB65EC0B7}"/>
-    <hyperlink ref="G24" r:id="rId22" xr:uid="{EF2749B1-E380-479D-B155-EF699A8BE26C}"/>
-    <hyperlink ref="G25" r:id="rId23" xr:uid="{2901FBD2-1CBD-48AA-8251-8FA8005557C5}"/>
-    <hyperlink ref="G27" r:id="rId24" xr:uid="{C11802AB-C463-4741-BB63-6B64F4845852}"/>
-    <hyperlink ref="G28" r:id="rId25" xr:uid="{870CDC09-40CF-48E8-9326-6AC01047B5A6}"/>
-    <hyperlink ref="G29" r:id="rId26" xr:uid="{BA6A57EB-003D-4F46-B7C8-DB6E689E841E}"/>
-    <hyperlink ref="G30" r:id="rId27" xr:uid="{D9667EA8-0BCA-468B-B022-501E4AD41496}"/>
-    <hyperlink ref="G31" r:id="rId28" xr:uid="{A93ED042-CE7F-489E-BCC1-FFBD79414108}"/>
-    <hyperlink ref="G26" r:id="rId29" xr:uid="{F21A0268-94E4-4EC0-B245-75396B27E2E3}"/>
-    <hyperlink ref="G20" r:id="rId30" xr:uid="{7CB8EEFB-E853-4E95-B46C-1CE5ABBDC94D}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{F7CC611D-4BD2-4001-AEB8-DE09CF4E88D5}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{A4B43C07-E938-48B3-A6E6-46A3E45A6B48}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{AC37DDBB-5E42-4A37-813B-59C31DAC776A}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{F1747C0F-F9AA-4224-9725-961C1EA65D36}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{E482F064-F6CD-4E2B-BD16-3C5AE5A26CB0}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{8AFF4FCB-188E-4CA4-9435-6A2C981856FB}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{D6CDD10A-1D5E-47C0-B586-3E4E345F74A6}"/>
+    <hyperlink ref="G14" r:id="rId9" xr:uid="{912B1DA4-94FB-4F09-BD8C-7781ACDD4880}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{3C7636EF-9FFE-495C-8895-B7A6F6EC0D38}"/>
+    <hyperlink ref="G19" r:id="rId11" xr:uid="{7C2D69A4-F66F-49FD-84C8-4F3C1FB2DCA8}"/>
+    <hyperlink ref="G21" r:id="rId12" xr:uid="{B384C1E0-93EB-47BE-A1B9-81B422D52399}"/>
+    <hyperlink ref="G22" r:id="rId13" xr:uid="{2F971E03-B15F-4FB6-ADD6-9F7659FF6337}"/>
+    <hyperlink ref="G24" r:id="rId14" xr:uid="{474EF839-7364-4615-9BA9-D36A98D8043B}"/>
+    <hyperlink ref="G26" r:id="rId15" xr:uid="{B83966E8-0CA6-4922-B435-C1DBFDEDC406}"/>
+    <hyperlink ref="G28" r:id="rId16" xr:uid="{555A9DA7-6F74-42E2-9398-DF43FE60C67B}"/>
+    <hyperlink ref="G30" r:id="rId17" xr:uid="{248F0F73-4963-40AE-8A92-CD274F79F4C4}"/>
+    <hyperlink ref="G32" r:id="rId18" xr:uid="{7F38A6CE-A762-47E9-9845-5CD62FFDF541}"/>
+    <hyperlink ref="G36" r:id="rId19" xr:uid="{67A21F9E-1307-45C0-B96C-D361994A4589}"/>
+    <hyperlink ref="G37" r:id="rId20" xr:uid="{385420D3-726D-4B3F-BABC-EBBD209C7033}"/>
+    <hyperlink ref="G38" r:id="rId21" xr:uid="{3026AA17-CC9E-4420-9BAE-341BB65EC0B7}"/>
+    <hyperlink ref="G39" r:id="rId22" xr:uid="{EF2749B1-E380-479D-B155-EF699A8BE26C}"/>
+    <hyperlink ref="G40" r:id="rId23" xr:uid="{2901FBD2-1CBD-48AA-8251-8FA8005557C5}"/>
+    <hyperlink ref="G43" r:id="rId24" xr:uid="{C11802AB-C463-4741-BB63-6B64F4845852}"/>
+    <hyperlink ref="G44" r:id="rId25" xr:uid="{870CDC09-40CF-48E8-9326-6AC01047B5A6}"/>
+    <hyperlink ref="G46" r:id="rId26" xr:uid="{BA6A57EB-003D-4F46-B7C8-DB6E689E841E}"/>
+    <hyperlink ref="G48" r:id="rId27" xr:uid="{D9667EA8-0BCA-468B-B022-501E4AD41496}"/>
+    <hyperlink ref="G50" r:id="rId28" xr:uid="{A93ED042-CE7F-489E-BCC1-FFBD79414108}"/>
+    <hyperlink ref="G42" r:id="rId29" xr:uid="{F21A0268-94E4-4EC0-B245-75396B27E2E3}"/>
+    <hyperlink ref="G35" r:id="rId30" xr:uid="{7CB8EEFB-E853-4E95-B46C-1CE5ABBDC94D}"/>
+    <hyperlink ref="G3" r:id="rId31" xr:uid="{EB76F26E-DB04-4BE8-B0A0-7EBFF809C874}"/>
+    <hyperlink ref="G5" r:id="rId32" xr:uid="{1380B91D-7D24-451F-82F2-A8DD4C3680AF}"/>
+    <hyperlink ref="G11" r:id="rId33" xr:uid="{19F704C5-B9E7-46BD-91EA-6885B5E4A7CF}"/>
+    <hyperlink ref="G13" r:id="rId34" xr:uid="{A09C8153-017A-4330-BF9A-A99362A824C8}"/>
+    <hyperlink ref="G15" r:id="rId35" xr:uid="{D375E3E4-9634-428B-B207-0CB1578FE0FD}"/>
+    <hyperlink ref="G17" r:id="rId36" xr:uid="{B77D2126-2E4A-435A-B2BB-40E8991534FD}"/>
+    <hyperlink ref="G18" r:id="rId37" xr:uid="{C92971F6-C55D-43A0-9F23-3E1A225696C5}"/>
+    <hyperlink ref="G20" r:id="rId38" xr:uid="{C1F29C78-D1DD-40D6-B2AA-651A040C2276}"/>
+    <hyperlink ref="G23" r:id="rId39" xr:uid="{71C4A5AF-1B81-4175-A19F-B8AF5048A5AE}"/>
+    <hyperlink ref="G25" r:id="rId40" xr:uid="{ADD72BD4-0684-481B-AF8C-7F11C27F581D}"/>
+    <hyperlink ref="G27" r:id="rId41" xr:uid="{3BD5C4ED-8001-4DDB-88D9-361167D39CDD}"/>
+    <hyperlink ref="G29" r:id="rId42" xr:uid="{4E9EEA67-235E-4595-B539-C2FF1A1717A1}"/>
+    <hyperlink ref="G31" r:id="rId43" xr:uid="{BD844C36-D8E5-4983-9110-07CDD3DBC442}"/>
+    <hyperlink ref="G33" r:id="rId44" xr:uid="{06E5610B-9C51-4998-B6D0-A633D12502B7}"/>
+    <hyperlink ref="G34" r:id="rId45" xr:uid="{DEF04D61-5675-441E-B4A6-6F898431D1EA}"/>
+    <hyperlink ref="G41" r:id="rId46" xr:uid="{B6144AB4-456F-4A75-9F13-436E2EC2732C}"/>
+    <hyperlink ref="G45" r:id="rId47" xr:uid="{96003846-B40E-401F-B982-2C8C5F5A0A39}"/>
+    <hyperlink ref="G47" r:id="rId48" xr:uid="{FE5980C0-E2E4-4F32-9F2B-FC96BAC48109}"/>
+    <hyperlink ref="G49" r:id="rId49" xr:uid="{6FB8F59D-71FB-4815-A28D-D10BD891EFCC}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{18DF5B2D-7293-4579-BE61-67E938010A2E}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{2538F803-B78B-4F33-A69B-752CF4F504A1}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{DE50720E-2BC6-4E9C-8A80-EFA18164091A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
 </worksheet>
 </file>
--- a/LEGO部品リスト.xlsx
+++ b/LEGO部品リスト.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\conf2023_MSCS2023\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawata\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4388B2C4-EE9E-4B86-9172-4F4943521297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDE3FE0-4978-47F8-B03B-8AD8EE2A12EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="231" yWindow="0" windowWidth="25526" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1970" yWindow="720" windowWidth="20268" windowHeight="13205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adip" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>BLItemNo</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>4265c</t>
   </si>
   <si>
     <t>Technic Bush 1/2 Smooth</t>
@@ -182,131 +179,15 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4211375</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6327028</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6328063</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32014</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32034</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6331716</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6321745</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6130008</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6271167</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6276951</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4542578</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4142133</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4495930</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4585040</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6147702</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6275844</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://ja.aliexpress.com/item/1005003009773987.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4211805</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4519010</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://ja.aliexpress.com/item/1005003803961500.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4539880</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>6628a</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4184169</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>エレメント ID：4184169</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6279875</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4508553</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4206482</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6130009</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6299413</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>URL</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6331428</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=4540797</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -320,17 +201,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6265643</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>sold outなので互換パーツ</t>
-    <rPh sb="11" eb="13">
-      <t>ゴカン</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>合計金額</t>
     <rPh sb="0" eb="4">
       <t>ゴウケイキンガク</t>
@@ -339,18 +209,6 @@
   </si>
   <si>
     <t>Black</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=11478</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32039</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32054</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -384,43 +242,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32073</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>4265c</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=172584445</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=24384273</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32184</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32278</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32316</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32524</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=32526</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=25084441</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -431,10 +253,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.brickers.jp/?pid=24444820</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>各色（赤）</t>
     <rPh sb="3" eb="4">
       <t>アカ</t>
@@ -442,42 +260,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>各色（グレー）</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=158840167</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>各色（白）</t>
-    <rPh sb="3" eb="4">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>6538c</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=6538c</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?mode=srh&amp;keyword=64179</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=55926830</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=149910574</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=54941217</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -485,14 +268,6 @@
     <rPh sb="3" eb="4">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=54941132</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.brickers.jp/?pid=54941384</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -503,6 +278,156 @@
     <rPh sb="4" eb="5">
       <t>ハイ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=11478</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6328063</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4211375</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6279875</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32014</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32034</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6331716</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32039</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6321745</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32054</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6130008</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32073</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6276951</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32184</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4508553</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4542578</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32278</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4142133</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32316</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4495930</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32524</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4585040</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=32526</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6147702</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4206482</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6130009</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4211805</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4519010</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6538c</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4539880</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=64179</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6299413</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4184169</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6331428</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=25084441</t>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/1005003009773987.html</t>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/1005003803961500.html</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=55926830</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=149910574</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941217</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941132</t>
+  </si>
+  <si>
+    <t>https://www.brickers.jp/?pid=54941384</t>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6327028</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6271167</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4265c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6275844</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=6265643</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://brickers.jp/search?type=product&amp;q=4540797</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1188,31 +1113,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="71" zoomScaleNormal="66" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.7" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1607,113 +1532,113 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
+      <c r="A2" s="15">
         <v>11478</v>
       </c>
       <c r="B2" s="5">
         <v>6327028</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="15">
         <v>11478</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="9">
+        <v>49</v>
+      </c>
+      <c r="F2" s="14">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="13">
+        <v>101</v>
+      </c>
+      <c r="H2" s="4">
         <v>58</v>
       </c>
-      <c r="I2" s="13">
-        <f t="shared" ref="I2:I32" si="0">F2*H2</f>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:I30" si="0">F2*H2</f>
         <v>58</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
+      <c r="A4" s="15">
         <v>11478</v>
       </c>
       <c r="B4" s="5">
         <v>6328063</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="15">
         <v>11478</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="14">
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="13">
+        <v>60</v>
+      </c>
+      <c r="H4" s="4">
         <v>38</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
@@ -1736,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H6" s="4">
         <v>10</v>
@@ -1767,7 +1692,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -1798,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H8" s="4">
         <v>63</v>
@@ -1808,7 +1733,7 @@
         <v>63</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
@@ -1831,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4">
         <v>23</v>
@@ -1841,1099 +1766,1051 @@
         <v>23</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>32039</v>
       </c>
       <c r="B10" s="5">
         <v>6331716</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>32039</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="14">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="13">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4">
         <v>18</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>32054</v>
       </c>
       <c r="B12" s="5">
         <v>6321745</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>32054</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="13">
+        <v>67</v>
+      </c>
+      <c r="H12" s="4">
         <v>8</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>32073</v>
       </c>
       <c r="B14" s="5">
         <v>6130008</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>32073</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="14">
         <v>4</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="13">
+        <v>69</v>
+      </c>
+      <c r="H14" s="4">
         <v>10</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
+      <c r="A16" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B16" s="5">
         <v>6271167</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>18</v>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>4</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="13">
+        <v>102</v>
+      </c>
+      <c r="H16" s="4">
         <v>10</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="10">
+        <v>32184</v>
+      </c>
+      <c r="B17" s="5">
+        <v>6276951</v>
+      </c>
+      <c r="C17" s="10">
+        <v>32184</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="14">
+        <v>6</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11">
-        <v>32184</v>
-      </c>
-      <c r="B19" s="5">
-        <v>6276951</v>
-      </c>
-      <c r="C19" s="11">
-        <v>32184</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="9">
-        <v>6</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="13">
+        <v>71</v>
+      </c>
+      <c r="H17" s="4">
         <v>18</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I17" s="4">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
         <v>32209</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B19" s="5">
         <v>4508553</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C19" s="5">
         <v>32209</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="G19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="4">
         <v>8</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I19" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="10">
         <v>32278</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B20" s="5">
         <v>4542578</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C20" s="10">
         <v>32278</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="F20" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="G20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="4">
         <v>186</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="10">
         <v>32316</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B22" s="5">
         <v>4142133</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C22" s="10">
         <v>32316</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F22" s="14">
         <v>4</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="4">
         <v>20</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10">
         <v>32524</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B24" s="5">
         <v>4495930</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C24" s="10">
         <v>32524</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F24" s="4">
         <v>4</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="G24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="4">
         <v>38</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I24" s="4">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10">
+        <v>32526</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4585040</v>
+      </c>
+      <c r="C26" s="10">
+        <v>32526</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="4">
+        <v>38</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11">
-        <v>32526</v>
+      <c r="A28" s="10">
+        <v>3708</v>
       </c>
       <c r="B28" s="5">
-        <v>4585040</v>
-      </c>
-      <c r="C28" s="11">
-        <v>32526</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>6147702</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3708</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="13">
-        <v>38</v>
-      </c>
-      <c r="I28" s="13">
+        <v>82</v>
+      </c>
+      <c r="H28" s="4">
+        <v>128</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11">
-        <v>3708</v>
+      <c r="A30" s="8">
+        <v>3713</v>
       </c>
       <c r="B30" s="5">
-        <v>6147702</v>
-      </c>
-      <c r="C30" s="11">
-        <v>3708</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>27</v>
+        <v>6275844</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3713</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="13">
-        <v>128</v>
-      </c>
-      <c r="I30" s="13">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11">
-        <v>3713</v>
-      </c>
-      <c r="B32" s="5">
-        <v>6275844</v>
-      </c>
-      <c r="C32" s="11">
-        <v>3713</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="9">
-        <v>4</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="13">
+        <v>104</v>
+      </c>
+      <c r="H30" s="4">
         <v>13</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I30" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>39794</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6265643</v>
+      </c>
+      <c r="C31" s="15">
+        <v>39794</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="9">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="4">
+        <v>677</v>
+      </c>
+      <c r="I32" s="4">
+        <f>F31*H32</f>
+        <v>2708</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="5">
+        <v>43093</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4206482</v>
+      </c>
+      <c r="C33" s="5">
+        <v>43093</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
       <c r="G33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4">
+        <f>F33*H33</f>
+        <v>10</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="A34" s="5">
+        <v>44294</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6130009</v>
+      </c>
+      <c r="C34" s="5">
+        <v>44294</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
       <c r="G34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="H34" s="4">
+        <v>18</v>
+      </c>
+      <c r="I34" s="4">
+        <f>F34*H34</f>
+        <v>36</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
-        <v>39794</v>
+        <v>44294</v>
       </c>
       <c r="B35" s="5">
-        <v>6265643</v>
-      </c>
-      <c r="C35" s="8">
-        <v>39794</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="7">
-        <v>4</v>
+        <v>4211805</v>
+      </c>
+      <c r="C35" s="5">
+        <v>44294</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="H35" s="4">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4">
+        <f>F35*H35</f>
+        <v>32</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="A36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4519010</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
       <c r="G36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="13">
-        <v>677</v>
-      </c>
-      <c r="I36" s="13">
-        <f>F35*H36</f>
-        <v>2708</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H36" s="4">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4">
+        <f>F36*H36</f>
+        <v>24</v>
+      </c>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5">
-        <v>43093</v>
-      </c>
-      <c r="B37" s="5">
-        <v>4206482</v>
-      </c>
-      <c r="C37" s="5">
-        <v>43093</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="13">
-        <v>5</v>
-      </c>
-      <c r="I37" s="13">
-        <f>F37*H37</f>
-        <v>10</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
-        <v>44294</v>
+        <v>64178</v>
       </c>
       <c r="B38" s="5">
-        <v>6130009</v>
+        <v>4540797</v>
       </c>
       <c r="C38" s="5">
-        <v>44294</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="4" t="s">
+        <v>64178</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="4">
+        <v>398</v>
+      </c>
+      <c r="I38" s="4">
+        <f>F38*H38</f>
+        <v>398</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="4">
+        <v>78</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10">
+        <v>64179</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4539880</v>
+      </c>
+      <c r="C40" s="10">
+        <v>64179</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="14">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="4">
+        <v>303</v>
+      </c>
+      <c r="I40" s="4">
+        <f>F40*H40</f>
+        <v>909</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="11"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="10">
+        <v>6558</v>
+      </c>
+      <c r="B42" s="5">
+        <v>6299413</v>
+      </c>
+      <c r="C42" s="10">
+        <v>6558</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="14">
         <v>16</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="4">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4">
+        <f>F42*H42</f>
+        <v>128</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6344752</v>
+      </c>
+      <c r="C44" s="10">
+        <v>6628</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="14">
         <v>2</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="13">
+      <c r="G44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9</v>
+      </c>
+      <c r="I44" s="4">
+        <f>F44*H44</f>
         <v>18</v>
       </c>
-      <c r="I38" s="13">
-        <f>F38*H38</f>
-        <v>36</v>
-      </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5">
-        <v>44294</v>
-      </c>
-      <c r="B39" s="5">
-        <v>4211805</v>
-      </c>
-      <c r="C39" s="5">
-        <v>44294</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="J44" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="10">
+        <v>99773</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6331428</v>
+      </c>
+      <c r="C46" s="15">
+        <v>99773</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="13">
-        <v>16</v>
-      </c>
-      <c r="I39" s="13">
-        <f>F39*H39</f>
-        <v>32</v>
-      </c>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="5">
-        <v>4519010</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="13">
-        <v>12</v>
-      </c>
-      <c r="I40" s="13">
-        <f>F40*H40</f>
-        <v>24</v>
-      </c>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5">
-        <v>64178</v>
-      </c>
-      <c r="B42" s="5">
-        <v>4540797</v>
-      </c>
-      <c r="C42" s="5">
-        <v>64178</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="13">
-        <v>398</v>
-      </c>
-      <c r="I42" s="13">
-        <f>F42*H42</f>
-        <v>398</v>
-      </c>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="13">
-        <v>78</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="11">
-        <v>64179</v>
-      </c>
-      <c r="B44" s="5">
-        <v>4539880</v>
-      </c>
-      <c r="C44" s="11">
-        <v>64179</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="9">
+      <c r="F46" s="9">
         <v>3</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" s="13">
-        <v>303</v>
-      </c>
-      <c r="I44" s="13">
-        <f>F44*H44</f>
-        <v>909</v>
-      </c>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="11">
-        <v>6558</v>
-      </c>
-      <c r="B46" s="5">
-        <v>6299413</v>
-      </c>
-      <c r="C46" s="11">
-        <v>6558</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="9">
-        <v>16</v>
-      </c>
       <c r="G46" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="13">
-        <v>8</v>
-      </c>
-      <c r="I46" s="13">
+        <v>92</v>
+      </c>
+      <c r="H46" s="4">
+        <v>38</v>
+      </c>
+      <c r="I46" s="4">
         <f>F46*H46</f>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="14"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="5">
-        <v>6344752</v>
-      </c>
-      <c r="C48" s="11">
-        <v>6628</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A48" s="12"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="9">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="13">
-        <v>9</v>
-      </c>
-      <c r="I48" s="13">
-        <f>F48*H48</f>
-        <v>18</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="14"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="11">
-        <v>99773</v>
-      </c>
-      <c r="B50" s="5">
-        <v>6331428</v>
-      </c>
-      <c r="C50" s="8">
-        <v>99773</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="2">
+        <f>SUM(H2:H46)</f>
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="7">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="13">
-        <v>38</v>
-      </c>
-      <c r="I50" s="13">
-        <f>F50*H50</f>
-        <v>114</v>
-      </c>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="15"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="4"/>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="14"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="2">
-        <f>SUM(H2:H50)</f>
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57">
+      <c r="A53">
         <v>115</v>
       </c>
-      <c r="B57">
+      <c r="B53">
         <v>84.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A53"/>
+  <mergeCells count="67">
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C2:C3"/>
@@ -2943,110 +2820,39 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{79101C2D-CBC4-4E8E-8062-9E79F30E4760}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{F7CC611D-4BD2-4001-AEB8-DE09CF4E88D5}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{A4B43C07-E938-48B3-A6E6-46A3E45A6B48}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{AC37DDBB-5E42-4A37-813B-59C31DAC776A}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{F1747C0F-F9AA-4224-9725-961C1EA65D36}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{E482F064-F6CD-4E2B-BD16-3C5AE5A26CB0}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{8AFF4FCB-188E-4CA4-9435-6A2C981856FB}"/>
-    <hyperlink ref="G12" r:id="rId8" xr:uid="{D6CDD10A-1D5E-47C0-B586-3E4E345F74A6}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{912B1DA4-94FB-4F09-BD8C-7781ACDD4880}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{3C7636EF-9FFE-495C-8895-B7A6F6EC0D38}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{7C2D69A4-F66F-49FD-84C8-4F3C1FB2DCA8}"/>
-    <hyperlink ref="G21" r:id="rId12" xr:uid="{B384C1E0-93EB-47BE-A1B9-81B422D52399}"/>
-    <hyperlink ref="G22" r:id="rId13" xr:uid="{2F971E03-B15F-4FB6-ADD6-9F7659FF6337}"/>
-    <hyperlink ref="G24" r:id="rId14" xr:uid="{474EF839-7364-4615-9BA9-D36A98D8043B}"/>
-    <hyperlink ref="G26" r:id="rId15" xr:uid="{B83966E8-0CA6-4922-B435-C1DBFDEDC406}"/>
-    <hyperlink ref="G28" r:id="rId16" xr:uid="{555A9DA7-6F74-42E2-9398-DF43FE60C67B}"/>
-    <hyperlink ref="G30" r:id="rId17" xr:uid="{248F0F73-4963-40AE-8A92-CD274F79F4C4}"/>
-    <hyperlink ref="G32" r:id="rId18" xr:uid="{7F38A6CE-A762-47E9-9845-5CD62FFDF541}"/>
-    <hyperlink ref="G36" r:id="rId19" xr:uid="{67A21F9E-1307-45C0-B96C-D361994A4589}"/>
-    <hyperlink ref="G37" r:id="rId20" xr:uid="{385420D3-726D-4B3F-BABC-EBBD209C7033}"/>
-    <hyperlink ref="G38" r:id="rId21" xr:uid="{3026AA17-CC9E-4420-9BAE-341BB65EC0B7}"/>
-    <hyperlink ref="G39" r:id="rId22" xr:uid="{EF2749B1-E380-479D-B155-EF699A8BE26C}"/>
-    <hyperlink ref="G40" r:id="rId23" xr:uid="{2901FBD2-1CBD-48AA-8251-8FA8005557C5}"/>
-    <hyperlink ref="G43" r:id="rId24" xr:uid="{C11802AB-C463-4741-BB63-6B64F4845852}"/>
-    <hyperlink ref="G44" r:id="rId25" xr:uid="{870CDC09-40CF-48E8-9326-6AC01047B5A6}"/>
-    <hyperlink ref="G46" r:id="rId26" xr:uid="{BA6A57EB-003D-4F46-B7C8-DB6E689E841E}"/>
-    <hyperlink ref="G48" r:id="rId27" xr:uid="{D9667EA8-0BCA-468B-B022-501E4AD41496}"/>
-    <hyperlink ref="G50" r:id="rId28" xr:uid="{A93ED042-CE7F-489E-BCC1-FFBD79414108}"/>
-    <hyperlink ref="G42" r:id="rId29" xr:uid="{F21A0268-94E4-4EC0-B245-75396B27E2E3}"/>
-    <hyperlink ref="G35" r:id="rId30" xr:uid="{7CB8EEFB-E853-4E95-B46C-1CE5ABBDC94D}"/>
-    <hyperlink ref="G3" r:id="rId31" xr:uid="{EB76F26E-DB04-4BE8-B0A0-7EBFF809C874}"/>
-    <hyperlink ref="G5" r:id="rId32" xr:uid="{1380B91D-7D24-451F-82F2-A8DD4C3680AF}"/>
-    <hyperlink ref="G11" r:id="rId33" xr:uid="{19F704C5-B9E7-46BD-91EA-6885B5E4A7CF}"/>
-    <hyperlink ref="G13" r:id="rId34" xr:uid="{A09C8153-017A-4330-BF9A-A99362A824C8}"/>
-    <hyperlink ref="G15" r:id="rId35" xr:uid="{D375E3E4-9634-428B-B207-0CB1578FE0FD}"/>
-    <hyperlink ref="G17" r:id="rId36" xr:uid="{B77D2126-2E4A-435A-B2BB-40E8991534FD}"/>
-    <hyperlink ref="G18" r:id="rId37" xr:uid="{C92971F6-C55D-43A0-9F23-3E1A225696C5}"/>
-    <hyperlink ref="G20" r:id="rId38" xr:uid="{C1F29C78-D1DD-40D6-B2AA-651A040C2276}"/>
-    <hyperlink ref="G23" r:id="rId39" xr:uid="{71C4A5AF-1B81-4175-A19F-B8AF5048A5AE}"/>
-    <hyperlink ref="G25" r:id="rId40" xr:uid="{ADD72BD4-0684-481B-AF8C-7F11C27F581D}"/>
-    <hyperlink ref="G27" r:id="rId41" xr:uid="{3BD5C4ED-8001-4DDB-88D9-361167D39CDD}"/>
-    <hyperlink ref="G29" r:id="rId42" xr:uid="{4E9EEA67-235E-4595-B539-C2FF1A1717A1}"/>
-    <hyperlink ref="G31" r:id="rId43" xr:uid="{BD844C36-D8E5-4983-9110-07CDD3DBC442}"/>
-    <hyperlink ref="G33" r:id="rId44" xr:uid="{06E5610B-9C51-4998-B6D0-A633D12502B7}"/>
-    <hyperlink ref="G34" r:id="rId45" xr:uid="{DEF04D61-5675-441E-B4A6-6F898431D1EA}"/>
-    <hyperlink ref="G41" r:id="rId46" xr:uid="{B6144AB4-456F-4A75-9F13-436E2EC2732C}"/>
-    <hyperlink ref="G45" r:id="rId47" xr:uid="{96003846-B40E-401F-B982-2C8C5F5A0A39}"/>
-    <hyperlink ref="G47" r:id="rId48" xr:uid="{FE5980C0-E2E4-4F32-9F2B-FC96BAC48109}"/>
-    <hyperlink ref="G49" r:id="rId49" xr:uid="{6FB8F59D-71FB-4815-A28D-D10BD891EFCC}"/>
-    <hyperlink ref="G51" r:id="rId50" xr:uid="{18DF5B2D-7293-4579-BE61-67E938010A2E}"/>
-    <hyperlink ref="G52" r:id="rId51" xr:uid="{2538F803-B78B-4F33-A69B-752CF4F504A1}"/>
-    <hyperlink ref="G53" r:id="rId52" xr:uid="{DE50720E-2BC6-4E9C-8A80-EFA18164091A}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{DCE54546-34DF-4C41-AAF8-2AF32F1B1B97}"/>
+    <hyperlink ref="G16" r:id="rId2" xr:uid="{9D3C8DD4-7B49-40F2-87DC-E5D333FDDF91}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{BAE1E583-0A11-4930-8550-91EED17CC79A}"/>
+    <hyperlink ref="G31" r:id="rId4" xr:uid="{7379A2EA-A860-47EF-8903-6781C100D8BB}"/>
+    <hyperlink ref="G38" r:id="rId5" xr:uid="{E4ACE4AF-CD4F-4D0A-8277-B0E9F14DA1EF}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>